--- a/data/output/FV2504_FV2410/UTILTS/25001.xlsx
+++ b/data/output/FV2504_FV2410/UTILTS/25001.xlsx
@@ -14,69 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3033" uniqueCount="333">
-  <si>
-    <t>Segmentname_old</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_old</t>
-  </si>
-  <si>
-    <t>Segment_old</t>
-  </si>
-  <si>
-    <t>Datenelement_old</t>
-  </si>
-  <si>
-    <t>Segment ID_old</t>
-  </si>
-  <si>
-    <t>Code_old</t>
-  </si>
-  <si>
-    <t>Qualifier_old</t>
-  </si>
-  <si>
-    <t>Beschreibung_old</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_old</t>
-  </si>
-  <si>
-    <t>Bedingung_old</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3054" uniqueCount="333">
+  <si>
+    <t>Segmentname_FV2410</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2410</t>
+  </si>
+  <si>
+    <t>Segment_FV2410</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2410</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2410</t>
+  </si>
+  <si>
+    <t>Code_FV2410</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2410</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2410</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2410</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2410</t>
   </si>
   <si>
     <t>diff</t>
   </si>
   <si>
-    <t>Segmentname_new</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_new</t>
-  </si>
-  <si>
-    <t>Segment_new</t>
-  </si>
-  <si>
-    <t>Datenelement_new</t>
-  </si>
-  <si>
-    <t>Segment ID_new</t>
-  </si>
-  <si>
-    <t>Code_new</t>
-  </si>
-  <si>
-    <t>Qualifier_new</t>
-  </si>
-  <si>
-    <t>Beschreibung_new</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_new</t>
-  </si>
-  <si>
-    <t>Bedingung_new</t>
+    <t>Segmentname_FV2504</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2504</t>
+  </si>
+  <si>
+    <t>Segment_FV2504</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2504</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2504</t>
+  </si>
+  <si>
+    <t>Code_FV2504</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2504</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2504</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2504</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2504</t>
   </si>
   <si>
     <t>Nachrichten-Kopfsegment</t>
@@ -1171,6 +1171,36 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:U152" totalsRowShown="0">
+  <autoFilter ref="A1:U152"/>
+  <tableColumns count="21">
+    <tableColumn id="1" name="Segmentname_FV2410"/>
+    <tableColumn id="2" name="Segmentgruppe_FV2410"/>
+    <tableColumn id="3" name="Segment_FV2410"/>
+    <tableColumn id="4" name="Datenelement_FV2410"/>
+    <tableColumn id="5" name="Segment ID_FV2410"/>
+    <tableColumn id="6" name="Code_FV2410"/>
+    <tableColumn id="7" name="Qualifier_FV2410"/>
+    <tableColumn id="8" name="Beschreibung_FV2410"/>
+    <tableColumn id="9" name="Bedingungsausdruck_FV2410"/>
+    <tableColumn id="10" name="Bedingung_FV2410"/>
+    <tableColumn id="11" name="diff"/>
+    <tableColumn id="12" name="Segmentname_FV2504"/>
+    <tableColumn id="13" name="Segmentgruppe_FV2504"/>
+    <tableColumn id="14" name="Segment_FV2504"/>
+    <tableColumn id="15" name="Datenelement_FV2504"/>
+    <tableColumn id="16" name="Segment ID_FV2504"/>
+    <tableColumn id="17" name="Code_FV2504"/>
+    <tableColumn id="18" name="Qualifier_FV2504"/>
+    <tableColumn id="19" name="Beschreibung_FV2504"/>
+    <tableColumn id="20" name="Bedingungsausdruck_FV2504"/>
+    <tableColumn id="21" name="Bedingung_FV2504"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1460,7 +1490,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U152"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -8371,5 +8404,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/data/output/FV2504_FV2410/UTILTS/25001.xlsx
+++ b/data/output/FV2504_FV2410/UTILTS/25001.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3707" uniqueCount="483">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3683" uniqueCount="483">
   <si>
     <t>#</t>
   </si>
@@ -4671,9 +4671,7 @@
         <v>237</v>
       </c>
       <c r="K54" s="5"/>
-      <c r="L54" s="7" t="s">
-        <v>281</v>
-      </c>
+      <c r="L54" s="4"/>
       <c r="M54" s="5" t="s">
         <v>32</v>
       </c>
@@ -4974,44 +4972,42 @@
       <c r="V59" s="11"/>
     </row>
     <row r="60" spans="1:22">
-      <c r="A60" s="5" t="s">
+      <c r="A60" s="2" t="s">
         <v>391</v>
       </c>
-      <c r="B60" s="5" t="s">
+      <c r="B60" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C60" s="5" t="s">
+      <c r="C60" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="D60" s="5"/>
-      <c r="E60" s="5"/>
-      <c r="F60" s="5"/>
-      <c r="G60" s="5"/>
-      <c r="H60" s="5"/>
-      <c r="I60" s="5"/>
-      <c r="J60" s="5" t="s">
+      <c r="D60" s="2"/>
+      <c r="E60" s="2"/>
+      <c r="F60" s="2"/>
+      <c r="G60" s="2"/>
+      <c r="H60" s="2"/>
+      <c r="I60" s="2"/>
+      <c r="J60" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="K60" s="5"/>
-      <c r="L60" s="7" t="s">
-        <v>281</v>
-      </c>
-      <c r="M60" s="5" t="s">
+      <c r="K60" s="2"/>
+      <c r="L60" s="4"/>
+      <c r="M60" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="N60" s="5" t="s">
+      <c r="N60" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="O60" s="5"/>
-      <c r="P60" s="5"/>
-      <c r="Q60" s="5"/>
-      <c r="R60" s="5"/>
-      <c r="S60" s="5"/>
-      <c r="T60" s="5"/>
-      <c r="U60" s="5" t="s">
+      <c r="O60" s="2"/>
+      <c r="P60" s="2"/>
+      <c r="Q60" s="2"/>
+      <c r="R60" s="2"/>
+      <c r="S60" s="2"/>
+      <c r="T60" s="2"/>
+      <c r="U60" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="V60" s="5"/>
+      <c r="V60" s="2"/>
     </row>
     <row r="61" spans="1:22">
       <c r="A61" s="5" t="s">
@@ -7508,44 +7504,42 @@
       </c>
     </row>
     <row r="116" spans="1:22">
-      <c r="A116" s="5" t="s">
+      <c r="A116" s="2" t="s">
         <v>447</v>
       </c>
-      <c r="B116" s="5" t="s">
+      <c r="B116" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C116" s="5" t="s">
+      <c r="C116" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="D116" s="5"/>
-      <c r="E116" s="5"/>
-      <c r="F116" s="5"/>
-      <c r="G116" s="5"/>
-      <c r="H116" s="5"/>
-      <c r="I116" s="5"/>
-      <c r="J116" s="5" t="s">
+      <c r="D116" s="2"/>
+      <c r="E116" s="2"/>
+      <c r="F116" s="2"/>
+      <c r="G116" s="2"/>
+      <c r="H116" s="2"/>
+      <c r="I116" s="2"/>
+      <c r="J116" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="K116" s="5"/>
-      <c r="L116" s="7" t="s">
-        <v>281</v>
-      </c>
-      <c r="M116" s="5" t="s">
+      <c r="K116" s="2"/>
+      <c r="L116" s="4"/>
+      <c r="M116" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="N116" s="5" t="s">
+      <c r="N116" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="O116" s="5"/>
-      <c r="P116" s="5"/>
-      <c r="Q116" s="5"/>
-      <c r="R116" s="5"/>
-      <c r="S116" s="5"/>
-      <c r="T116" s="5"/>
-      <c r="U116" s="5" t="s">
+      <c r="O116" s="2"/>
+      <c r="P116" s="2"/>
+      <c r="Q116" s="2"/>
+      <c r="R116" s="2"/>
+      <c r="S116" s="2"/>
+      <c r="T116" s="2"/>
+      <c r="U116" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="V116" s="5"/>
+      <c r="V116" s="2"/>
     </row>
     <row r="117" spans="1:22">
       <c r="A117" s="5" t="s">
@@ -7791,9 +7785,7 @@
         <v>254</v>
       </c>
       <c r="K121" s="5"/>
-      <c r="L121" s="7" t="s">
-        <v>281</v>
-      </c>
+      <c r="L121" s="4"/>
       <c r="M121" s="5" t="s">
         <v>41</v>
       </c>
@@ -7847,9 +7839,7 @@
         <v>255</v>
       </c>
       <c r="K122" s="5"/>
-      <c r="L122" s="7" t="s">
-        <v>281</v>
-      </c>
+      <c r="L122" s="4"/>
       <c r="M122" s="5" t="s">
         <v>41</v>
       </c>
@@ -7903,9 +7893,7 @@
         <v>255</v>
       </c>
       <c r="K123" s="5"/>
-      <c r="L123" s="7" t="s">
-        <v>281</v>
-      </c>
+      <c r="L123" s="4"/>
       <c r="M123" s="5" t="s">
         <v>41</v>
       </c>
@@ -7959,9 +7947,7 @@
         <v>256</v>
       </c>
       <c r="K124" s="5"/>
-      <c r="L124" s="7" t="s">
-        <v>281</v>
-      </c>
+      <c r="L124" s="4"/>
       <c r="M124" s="5" t="s">
         <v>41</v>
       </c>
@@ -8048,46 +8034,44 @@
       </c>
     </row>
     <row r="126" spans="1:22">
-      <c r="A126" s="5" t="s">
+      <c r="A126" s="2" t="s">
         <v>457</v>
       </c>
-      <c r="B126" s="5" t="s">
+      <c r="B126" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C126" s="5" t="s">
+      <c r="C126" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="D126" s="5"/>
-      <c r="E126" s="5"/>
-      <c r="F126" s="5"/>
-      <c r="G126" s="5"/>
-      <c r="H126" s="5"/>
-      <c r="I126" s="5"/>
-      <c r="J126" s="5" t="s">
+      <c r="D126" s="2"/>
+      <c r="E126" s="2"/>
+      <c r="F126" s="2"/>
+      <c r="G126" s="2"/>
+      <c r="H126" s="2"/>
+      <c r="I126" s="2"/>
+      <c r="J126" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="K126" s="5" t="s">
+      <c r="K126" s="2" t="s">
         <v>277</v>
       </c>
-      <c r="L126" s="7" t="s">
-        <v>281</v>
-      </c>
-      <c r="M126" s="5" t="s">
+      <c r="L126" s="4"/>
+      <c r="M126" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="N126" s="5" t="s">
+      <c r="N126" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="O126" s="5"/>
-      <c r="P126" s="5"/>
-      <c r="Q126" s="5"/>
-      <c r="R126" s="5"/>
-      <c r="S126" s="5"/>
-      <c r="T126" s="5"/>
-      <c r="U126" s="5" t="s">
+      <c r="O126" s="2"/>
+      <c r="P126" s="2"/>
+      <c r="Q126" s="2"/>
+      <c r="R126" s="2"/>
+      <c r="S126" s="2"/>
+      <c r="T126" s="2"/>
+      <c r="U126" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="V126" s="5" t="s">
+      <c r="V126" s="2" t="s">
         <v>277</v>
       </c>
     </row>
@@ -8335,9 +8319,7 @@
         <v>237</v>
       </c>
       <c r="K131" s="5"/>
-      <c r="L131" s="7" t="s">
-        <v>281</v>
-      </c>
+      <c r="L131" s="4"/>
       <c r="M131" s="5" t="s">
         <v>42</v>
       </c>
@@ -8364,46 +8346,44 @@
       <c r="V131" s="5"/>
     </row>
     <row r="132" spans="1:22">
-      <c r="A132" s="5" t="s">
+      <c r="A132" s="2" t="s">
         <v>463</v>
       </c>
-      <c r="B132" s="5" t="s">
+      <c r="B132" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C132" s="5" t="s">
+      <c r="C132" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="D132" s="5"/>
-      <c r="E132" s="5"/>
-      <c r="F132" s="5"/>
-      <c r="G132" s="5"/>
-      <c r="H132" s="5"/>
-      <c r="I132" s="5"/>
-      <c r="J132" s="5" t="s">
+      <c r="D132" s="2"/>
+      <c r="E132" s="2"/>
+      <c r="F132" s="2"/>
+      <c r="G132" s="2"/>
+      <c r="H132" s="2"/>
+      <c r="I132" s="2"/>
+      <c r="J132" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="K132" s="5" t="s">
+      <c r="K132" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="L132" s="7" t="s">
-        <v>281</v>
-      </c>
-      <c r="M132" s="5" t="s">
+      <c r="L132" s="4"/>
+      <c r="M132" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="N132" s="5" t="s">
+      <c r="N132" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="O132" s="5"/>
-      <c r="P132" s="5"/>
-      <c r="Q132" s="5"/>
-      <c r="R132" s="5"/>
-      <c r="S132" s="5"/>
-      <c r="T132" s="5"/>
-      <c r="U132" s="5" t="s">
+      <c r="O132" s="2"/>
+      <c r="P132" s="2"/>
+      <c r="Q132" s="2"/>
+      <c r="R132" s="2"/>
+      <c r="S132" s="2"/>
+      <c r="T132" s="2"/>
+      <c r="U132" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="V132" s="5" t="s">
+      <c r="V132" s="2" t="s">
         <v>278</v>
       </c>
     </row>
@@ -8684,46 +8664,44 @@
       </c>
     </row>
     <row r="138" spans="1:22">
-      <c r="A138" s="5" t="s">
+      <c r="A138" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="B138" s="5" t="s">
+      <c r="B138" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C138" s="5" t="s">
+      <c r="C138" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="D138" s="5"/>
-      <c r="E138" s="5"/>
-      <c r="F138" s="5"/>
-      <c r="G138" s="5"/>
-      <c r="H138" s="5"/>
-      <c r="I138" s="5"/>
-      <c r="J138" s="5" t="s">
+      <c r="D138" s="2"/>
+      <c r="E138" s="2"/>
+      <c r="F138" s="2"/>
+      <c r="G138" s="2"/>
+      <c r="H138" s="2"/>
+      <c r="I138" s="2"/>
+      <c r="J138" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="K138" s="5" t="s">
+      <c r="K138" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="L138" s="7" t="s">
-        <v>281</v>
-      </c>
-      <c r="M138" s="5" t="s">
+      <c r="L138" s="4"/>
+      <c r="M138" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="N138" s="5" t="s">
+      <c r="N138" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="O138" s="5"/>
-      <c r="P138" s="5"/>
-      <c r="Q138" s="5"/>
-      <c r="R138" s="5"/>
-      <c r="S138" s="5"/>
-      <c r="T138" s="5"/>
-      <c r="U138" s="5" t="s">
+      <c r="O138" s="2"/>
+      <c r="P138" s="2"/>
+      <c r="Q138" s="2"/>
+      <c r="R138" s="2"/>
+      <c r="S138" s="2"/>
+      <c r="T138" s="2"/>
+      <c r="U138" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="V138" s="5" t="s">
+      <c r="V138" s="2" t="s">
         <v>278</v>
       </c>
     </row>
@@ -9004,46 +8982,44 @@
       </c>
     </row>
     <row r="144" spans="1:22">
-      <c r="A144" s="5" t="s">
+      <c r="A144" s="2" t="s">
         <v>474</v>
       </c>
-      <c r="B144" s="5" t="s">
+      <c r="B144" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C144" s="5" t="s">
+      <c r="C144" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="D144" s="5"/>
-      <c r="E144" s="5"/>
-      <c r="F144" s="5"/>
-      <c r="G144" s="5"/>
-      <c r="H144" s="5"/>
-      <c r="I144" s="5"/>
-      <c r="J144" s="5" t="s">
+      <c r="D144" s="2"/>
+      <c r="E144" s="2"/>
+      <c r="F144" s="2"/>
+      <c r="G144" s="2"/>
+      <c r="H144" s="2"/>
+      <c r="I144" s="2"/>
+      <c r="J144" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="K144" s="5" t="s">
+      <c r="K144" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="L144" s="7" t="s">
-        <v>281</v>
-      </c>
-      <c r="M144" s="5" t="s">
+      <c r="L144" s="4"/>
+      <c r="M144" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="N144" s="5" t="s">
+      <c r="N144" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="O144" s="5"/>
-      <c r="P144" s="5"/>
-      <c r="Q144" s="5"/>
-      <c r="R144" s="5"/>
-      <c r="S144" s="5"/>
-      <c r="T144" s="5"/>
-      <c r="U144" s="5" t="s">
+      <c r="O144" s="2"/>
+      <c r="P144" s="2"/>
+      <c r="Q144" s="2"/>
+      <c r="R144" s="2"/>
+      <c r="S144" s="2"/>
+      <c r="T144" s="2"/>
+      <c r="U144" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="V144" s="5" t="s">
+      <c r="V144" s="2" t="s">
         <v>278</v>
       </c>
     </row>

--- a/data/output/FV2504_FV2410/UTILTS/25001.xlsx
+++ b/data/output/FV2504_FV2410/UTILTS/25001.xlsx
@@ -1605,7 +1605,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1628,6 +1628,9 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1636,6 +1639,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2078,7 +2084,7 @@
       </c>
       <c r="K2" s="2"/>
       <c r="L2" s="4"/>
-      <c r="M2" s="2" t="s">
+      <c r="M2" s="3" t="s">
         <v>22</v>
       </c>
       <c r="N2" s="2"/>
@@ -2442,7 +2448,7 @@
       </c>
       <c r="K9" s="2"/>
       <c r="L9" s="4"/>
-      <c r="M9" s="2" t="s">
+      <c r="M9" s="3" t="s">
         <v>23</v>
       </c>
       <c r="N9" s="2"/>
@@ -2588,7 +2594,7 @@
       </c>
       <c r="K12" s="2"/>
       <c r="L12" s="4"/>
-      <c r="M12" s="2" t="s">
+      <c r="M12" s="3" t="s">
         <v>24</v>
       </c>
       <c r="N12" s="2"/>
@@ -2790,7 +2796,7 @@
       </c>
       <c r="K16" s="2"/>
       <c r="L16" s="4"/>
-      <c r="M16" s="2" t="s">
+      <c r="M16" s="3" t="s">
         <v>25</v>
       </c>
       <c r="N16" s="2" t="s">
@@ -3082,22 +3088,22 @@
       <c r="V21" s="5"/>
     </row>
     <row r="22" spans="1:22">
-      <c r="A22" s="5" t="s">
+      <c r="A22" s="2" t="s">
         <v>354</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="B22" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C22" s="5" t="s">
+      <c r="C22" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="5"/>
-      <c r="H22" s="5"/>
-      <c r="I22" s="5"/>
-      <c r="J22" s="5" t="s">
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2" t="s">
         <v>240</v>
       </c>
       <c r="K22" s="6" t="s">
@@ -3106,19 +3112,19 @@
       <c r="L22" s="7" t="s">
         <v>281</v>
       </c>
-      <c r="M22" s="5" t="s">
+      <c r="M22" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="N22" s="5" t="s">
+      <c r="N22" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="O22" s="5"/>
-      <c r="P22" s="5"/>
-      <c r="Q22" s="5"/>
-      <c r="R22" s="5"/>
-      <c r="S22" s="5"/>
-      <c r="T22" s="5"/>
-      <c r="U22" s="5" t="s">
+      <c r="O22" s="2"/>
+      <c r="P22" s="2"/>
+      <c r="Q22" s="2"/>
+      <c r="R22" s="2"/>
+      <c r="S22" s="2"/>
+      <c r="T22" s="2"/>
+      <c r="U22" s="2" t="s">
         <v>240</v>
       </c>
       <c r="V22" s="6" t="s">
@@ -3308,7 +3314,7 @@
       </c>
       <c r="K26" s="2"/>
       <c r="L26" s="4"/>
-      <c r="M26" s="2" t="s">
+      <c r="M26" s="3" t="s">
         <v>27</v>
       </c>
       <c r="N26" s="2" t="s">
@@ -3682,7 +3688,7 @@
       </c>
       <c r="K33" s="2"/>
       <c r="L33" s="4"/>
-      <c r="M33" s="2" t="s">
+      <c r="M33" s="3" t="s">
         <v>28</v>
       </c>
       <c r="N33" s="2" t="s">
@@ -3994,7 +4000,7 @@
       </c>
       <c r="K39" s="2"/>
       <c r="L39" s="4"/>
-      <c r="M39" s="2" t="s">
+      <c r="M39" s="3" t="s">
         <v>29</v>
       </c>
       <c r="N39" s="2" t="s">
@@ -4176,24 +4182,24 @@
       <c r="B43" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="C43" s="8" t="s">
+      <c r="C43" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="D43" s="8" t="s">
+      <c r="D43" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="E43" s="8"/>
-      <c r="F43" s="8" t="s">
+      <c r="E43" s="9"/>
+      <c r="F43" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="G43" s="8"/>
-      <c r="H43" s="8"/>
-      <c r="I43" s="8"/>
-      <c r="J43" s="8" t="s">
+      <c r="G43" s="9"/>
+      <c r="H43" s="9"/>
+      <c r="I43" s="9"/>
+      <c r="J43" s="9" t="s">
         <v>236</v>
       </c>
-      <c r="K43" s="8"/>
-      <c r="L43" s="9" t="s">
+      <c r="K43" s="9"/>
+      <c r="L43" s="10" t="s">
         <v>282</v>
       </c>
       <c r="M43" s="5"/>
@@ -4211,33 +4217,33 @@
       <c r="A44" s="5" t="s">
         <v>375</v>
       </c>
-      <c r="B44" s="8" t="s">
+      <c r="B44" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="C44" s="8" t="s">
+      <c r="C44" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="D44" s="8" t="s">
+      <c r="D44" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="E44" s="8" t="s">
+      <c r="E44" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="F44" s="8" t="s">
+      <c r="F44" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="G44" s="8" t="s">
+      <c r="G44" s="9" t="s">
         <v>151</v>
       </c>
-      <c r="H44" s="8"/>
-      <c r="I44" s="8" t="s">
+      <c r="H44" s="9"/>
+      <c r="I44" s="9" t="s">
         <v>211</v>
       </c>
-      <c r="J44" s="8" t="s">
-        <v>237</v>
-      </c>
-      <c r="K44" s="8"/>
-      <c r="L44" s="9" t="s">
+      <c r="J44" s="9" t="s">
+        <v>237</v>
+      </c>
+      <c r="K44" s="9"/>
+      <c r="L44" s="10" t="s">
         <v>282</v>
       </c>
       <c r="M44" s="5"/>
@@ -4255,33 +4261,33 @@
       <c r="A45" s="5" t="s">
         <v>376</v>
       </c>
-      <c r="B45" s="8" t="s">
+      <c r="B45" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="C45" s="8" t="s">
+      <c r="C45" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="D45" s="8" t="s">
+      <c r="D45" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="E45" s="8" t="s">
+      <c r="E45" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="F45" s="8" t="s">
+      <c r="F45" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="G45" s="8"/>
-      <c r="H45" s="8"/>
-      <c r="I45" s="8" t="s">
+      <c r="G45" s="9"/>
+      <c r="H45" s="9"/>
+      <c r="I45" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="J45" s="8" t="s">
+      <c r="J45" s="9" t="s">
         <v>242</v>
       </c>
-      <c r="K45" s="8" t="s">
+      <c r="K45" s="9" t="s">
         <v>265</v>
       </c>
-      <c r="L45" s="9" t="s">
+      <c r="L45" s="10" t="s">
         <v>282</v>
       </c>
       <c r="M45" s="5"/>
@@ -4302,24 +4308,24 @@
       <c r="B46" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="C46" s="8" t="s">
+      <c r="C46" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="D46" s="8" t="s">
+      <c r="D46" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="E46" s="8"/>
-      <c r="F46" s="8" t="s">
+      <c r="E46" s="9"/>
+      <c r="F46" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="G46" s="8"/>
-      <c r="H46" s="8"/>
-      <c r="I46" s="8"/>
-      <c r="J46" s="8" t="s">
+      <c r="G46" s="9"/>
+      <c r="H46" s="9"/>
+      <c r="I46" s="9"/>
+      <c r="J46" s="9" t="s">
         <v>236</v>
       </c>
-      <c r="K46" s="8"/>
-      <c r="L46" s="9" t="s">
+      <c r="K46" s="9"/>
+      <c r="L46" s="10" t="s">
         <v>282</v>
       </c>
       <c r="M46" s="5"/>
@@ -4337,33 +4343,33 @@
       <c r="A47" s="5" t="s">
         <v>378</v>
       </c>
-      <c r="B47" s="8" t="s">
+      <c r="B47" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="C47" s="8" t="s">
+      <c r="C47" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="D47" s="8" t="s">
+      <c r="D47" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="E47" s="8" t="s">
+      <c r="E47" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="F47" s="8" t="s">
+      <c r="F47" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="G47" s="8" t="s">
+      <c r="G47" s="9" t="s">
         <v>152</v>
       </c>
-      <c r="H47" s="8"/>
-      <c r="I47" s="8" t="s">
+      <c r="H47" s="9"/>
+      <c r="I47" s="9" t="s">
         <v>212</v>
       </c>
-      <c r="J47" s="8" t="s">
-        <v>237</v>
-      </c>
-      <c r="K47" s="8"/>
-      <c r="L47" s="9" t="s">
+      <c r="J47" s="9" t="s">
+        <v>237</v>
+      </c>
+      <c r="K47" s="9"/>
+      <c r="L47" s="10" t="s">
         <v>282</v>
       </c>
       <c r="M47" s="5"/>
@@ -4381,33 +4387,33 @@
       <c r="A48" s="5" t="s">
         <v>379</v>
       </c>
-      <c r="B48" s="8" t="s">
+      <c r="B48" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="C48" s="8" t="s">
+      <c r="C48" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="D48" s="8" t="s">
+      <c r="D48" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="E48" s="8" t="s">
+      <c r="E48" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="F48" s="8" t="s">
+      <c r="F48" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="G48" s="8"/>
-      <c r="H48" s="8"/>
-      <c r="I48" s="8" t="s">
+      <c r="G48" s="9"/>
+      <c r="H48" s="9"/>
+      <c r="I48" s="9" t="s">
         <v>194</v>
       </c>
-      <c r="J48" s="8" t="s">
+      <c r="J48" s="9" t="s">
         <v>243</v>
       </c>
-      <c r="K48" s="8" t="s">
+      <c r="K48" s="9" t="s">
         <v>266</v>
       </c>
-      <c r="L48" s="9" t="s">
+      <c r="L48" s="10" t="s">
         <v>282</v>
       </c>
       <c r="M48" s="5"/>
@@ -4425,33 +4431,33 @@
       <c r="A49" s="5" t="s">
         <v>380</v>
       </c>
-      <c r="B49" s="8" t="s">
+      <c r="B49" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="C49" s="8" t="s">
+      <c r="C49" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="D49" s="8" t="s">
+      <c r="D49" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="E49" s="8" t="s">
+      <c r="E49" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="F49" s="8" t="s">
+      <c r="F49" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="G49" s="8" t="s">
+      <c r="G49" s="9" t="s">
         <v>139</v>
       </c>
-      <c r="H49" s="8"/>
-      <c r="I49" s="8" t="s">
+      <c r="H49" s="9"/>
+      <c r="I49" s="9" t="s">
         <v>195</v>
       </c>
-      <c r="J49" s="8" t="s">
-        <v>237</v>
-      </c>
-      <c r="K49" s="8"/>
-      <c r="L49" s="9" t="s">
+      <c r="J49" s="9" t="s">
+        <v>237</v>
+      </c>
+      <c r="K49" s="9"/>
+      <c r="L49" s="10" t="s">
         <v>282</v>
       </c>
       <c r="M49" s="5"/>
@@ -4479,29 +4485,29 @@
       <c r="I50" s="5"/>
       <c r="J50" s="5"/>
       <c r="K50" s="5"/>
-      <c r="L50" s="10" t="s">
+      <c r="L50" s="11" t="s">
         <v>283</v>
       </c>
-      <c r="M50" s="11" t="s">
+      <c r="M50" s="12" t="s">
         <v>211</v>
       </c>
-      <c r="N50" s="11" t="s">
+      <c r="N50" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="O50" s="11" t="s">
+      <c r="O50" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="P50" s="11"/>
-      <c r="Q50" s="11" t="s">
+      <c r="P50" s="13"/>
+      <c r="Q50" s="13" t="s">
         <v>109</v>
       </c>
-      <c r="R50" s="11"/>
-      <c r="S50" s="11"/>
-      <c r="T50" s="11"/>
-      <c r="U50" s="11" t="s">
+      <c r="R50" s="13"/>
+      <c r="S50" s="13"/>
+      <c r="T50" s="13"/>
+      <c r="U50" s="13" t="s">
         <v>236</v>
       </c>
-      <c r="V50" s="11"/>
+      <c r="V50" s="13"/>
     </row>
     <row r="51" spans="1:22">
       <c r="A51" s="5" t="s">
@@ -4517,35 +4523,35 @@
       <c r="I51" s="5"/>
       <c r="J51" s="5"/>
       <c r="K51" s="5"/>
-      <c r="L51" s="10" t="s">
+      <c r="L51" s="11" t="s">
         <v>283</v>
       </c>
-      <c r="M51" s="11" t="s">
+      <c r="M51" s="13" t="s">
         <v>211</v>
       </c>
-      <c r="N51" s="11" t="s">
+      <c r="N51" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="O51" s="11" t="s">
+      <c r="O51" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="P51" s="11" t="s">
+      <c r="P51" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="Q51" s="11" t="s">
+      <c r="Q51" s="13" t="s">
         <v>109</v>
       </c>
-      <c r="R51" s="11" t="s">
+      <c r="R51" s="13" t="s">
         <v>151</v>
       </c>
-      <c r="S51" s="11"/>
-      <c r="T51" s="11" t="s">
+      <c r="S51" s="13"/>
+      <c r="T51" s="13" t="s">
         <v>211</v>
       </c>
-      <c r="U51" s="11" t="s">
-        <v>237</v>
-      </c>
-      <c r="V51" s="11"/>
+      <c r="U51" s="13" t="s">
+        <v>237</v>
+      </c>
+      <c r="V51" s="13"/>
     </row>
     <row r="52" spans="1:22">
       <c r="A52" s="5" t="s">
@@ -4561,56 +4567,56 @@
       <c r="I52" s="5"/>
       <c r="J52" s="5"/>
       <c r="K52" s="5"/>
-      <c r="L52" s="10" t="s">
+      <c r="L52" s="11" t="s">
         <v>283</v>
       </c>
-      <c r="M52" s="11" t="s">
+      <c r="M52" s="13" t="s">
         <v>211</v>
       </c>
-      <c r="N52" s="11" t="s">
+      <c r="N52" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="O52" s="11" t="s">
+      <c r="O52" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="P52" s="11" t="s">
+      <c r="P52" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="Q52" s="11" t="s">
+      <c r="Q52" s="13" t="s">
         <v>109</v>
       </c>
-      <c r="R52" s="11"/>
-      <c r="S52" s="11"/>
-      <c r="T52" s="11" t="s">
+      <c r="R52" s="13"/>
+      <c r="S52" s="13"/>
+      <c r="T52" s="13" t="s">
         <v>302</v>
       </c>
-      <c r="U52" s="11" t="s">
+      <c r="U52" s="13" t="s">
         <v>308</v>
       </c>
-      <c r="V52" s="11" t="s">
+      <c r="V52" s="13" t="s">
         <v>322</v>
       </c>
     </row>
     <row r="53" spans="1:22">
-      <c r="A53" s="5" t="s">
+      <c r="A53" s="2" t="s">
         <v>384</v>
       </c>
-      <c r="B53" s="5" t="s">
+      <c r="B53" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C53" s="5" t="s">
+      <c r="C53" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="D53" s="5" t="s">
+      <c r="D53" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="E53" s="5"/>
-      <c r="F53" s="5" t="s">
+      <c r="E53" s="2"/>
+      <c r="F53" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="G53" s="5"/>
-      <c r="H53" s="5"/>
-      <c r="I53" s="5"/>
+      <c r="G53" s="2"/>
+      <c r="H53" s="2"/>
+      <c r="I53" s="2"/>
       <c r="J53" s="6" t="s">
         <v>236</v>
       </c>
@@ -4618,22 +4624,22 @@
       <c r="L53" s="7" t="s">
         <v>281</v>
       </c>
-      <c r="M53" s="5" t="s">
+      <c r="M53" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="N53" s="5" t="s">
+      <c r="N53" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="O53" s="5" t="s">
+      <c r="O53" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="P53" s="5"/>
-      <c r="Q53" s="5" t="s">
+      <c r="P53" s="2"/>
+      <c r="Q53" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="R53" s="5"/>
-      <c r="S53" s="5"/>
-      <c r="T53" s="5"/>
+      <c r="R53" s="2"/>
+      <c r="S53" s="2"/>
+      <c r="T53" s="2"/>
       <c r="U53" s="6" t="s">
         <v>309</v>
       </c>
@@ -4943,33 +4949,33 @@
       <c r="I59" s="5"/>
       <c r="J59" s="5"/>
       <c r="K59" s="5"/>
-      <c r="L59" s="10" t="s">
+      <c r="L59" s="11" t="s">
         <v>283</v>
       </c>
-      <c r="M59" s="11" t="s">
+      <c r="M59" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="N59" s="11" t="s">
+      <c r="N59" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="O59" s="11" t="s">
+      <c r="O59" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="P59" s="11" t="s">
+      <c r="P59" s="13" t="s">
         <v>289</v>
       </c>
-      <c r="Q59" s="11" t="s">
+      <c r="Q59" s="13" t="s">
         <v>111</v>
       </c>
-      <c r="R59" s="11"/>
-      <c r="S59" s="11"/>
-      <c r="T59" s="11" t="s">
+      <c r="R59" s="13"/>
+      <c r="S59" s="13"/>
+      <c r="T59" s="13" t="s">
         <v>303</v>
       </c>
-      <c r="U59" s="11" t="s">
-        <v>237</v>
-      </c>
-      <c r="V59" s="11"/>
+      <c r="U59" s="13" t="s">
+        <v>237</v>
+      </c>
+      <c r="V59" s="13"/>
     </row>
     <row r="60" spans="1:22">
       <c r="A60" s="2" t="s">
@@ -4992,7 +4998,7 @@
       </c>
       <c r="K60" s="2"/>
       <c r="L60" s="4"/>
-      <c r="M60" s="2" t="s">
+      <c r="M60" s="3" t="s">
         <v>33</v>
       </c>
       <c r="N60" s="2" t="s">
@@ -5184,20 +5190,20 @@
       <c r="B64" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="C64" s="8" t="s">
+      <c r="C64" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="D64" s="8"/>
-      <c r="E64" s="8"/>
-      <c r="F64" s="8"/>
-      <c r="G64" s="8"/>
-      <c r="H64" s="8"/>
-      <c r="I64" s="8"/>
-      <c r="J64" s="8" t="s">
+      <c r="D64" s="9"/>
+      <c r="E64" s="9"/>
+      <c r="F64" s="9"/>
+      <c r="G64" s="9"/>
+      <c r="H64" s="9"/>
+      <c r="I64" s="9"/>
+      <c r="J64" s="9" t="s">
         <v>236</v>
       </c>
-      <c r="K64" s="8"/>
-      <c r="L64" s="9" t="s">
+      <c r="K64" s="9"/>
+      <c r="L64" s="10" t="s">
         <v>282</v>
       </c>
       <c r="M64" s="5"/>
@@ -5215,27 +5221,27 @@
       <c r="A65" s="5" t="s">
         <v>396</v>
       </c>
-      <c r="B65" s="8" t="s">
+      <c r="B65" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="C65" s="8" t="s">
+      <c r="C65" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="D65" s="8" t="s">
+      <c r="D65" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="E65" s="8"/>
-      <c r="F65" s="8" t="s">
+      <c r="E65" s="9"/>
+      <c r="F65" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="G65" s="8"/>
-      <c r="H65" s="8"/>
-      <c r="I65" s="8"/>
-      <c r="J65" s="8" t="s">
+      <c r="G65" s="9"/>
+      <c r="H65" s="9"/>
+      <c r="I65" s="9"/>
+      <c r="J65" s="9" t="s">
         <v>236</v>
       </c>
-      <c r="K65" s="8"/>
-      <c r="L65" s="9" t="s">
+      <c r="K65" s="9"/>
+      <c r="L65" s="10" t="s">
         <v>282</v>
       </c>
       <c r="M65" s="5"/>
@@ -5253,33 +5259,33 @@
       <c r="A66" s="5" t="s">
         <v>397</v>
       </c>
-      <c r="B66" s="8" t="s">
+      <c r="B66" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="C66" s="8" t="s">
+      <c r="C66" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="D66" s="8" t="s">
+      <c r="D66" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="E66" s="8" t="s">
+      <c r="E66" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="F66" s="8" t="s">
+      <c r="F66" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="G66" s="8" t="s">
+      <c r="G66" s="9" t="s">
         <v>160</v>
       </c>
-      <c r="H66" s="8"/>
-      <c r="I66" s="8" t="s">
+      <c r="H66" s="9"/>
+      <c r="I66" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="J66" s="8" t="s">
-        <v>237</v>
-      </c>
-      <c r="K66" s="8"/>
-      <c r="L66" s="9" t="s">
+      <c r="J66" s="9" t="s">
+        <v>237</v>
+      </c>
+      <c r="K66" s="9"/>
+      <c r="L66" s="10" t="s">
         <v>282</v>
       </c>
       <c r="M66" s="5"/>
@@ -5297,33 +5303,33 @@
       <c r="A67" s="5" t="s">
         <v>398</v>
       </c>
-      <c r="B67" s="8" t="s">
+      <c r="B67" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="C67" s="8" t="s">
+      <c r="C67" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="D67" s="8" t="s">
+      <c r="D67" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="E67" s="8" t="s">
+      <c r="E67" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="F67" s="8" t="s">
+      <c r="F67" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="G67" s="8" t="s">
+      <c r="G67" s="9" t="s">
         <v>161</v>
       </c>
-      <c r="H67" s="8"/>
-      <c r="I67" s="8" t="s">
+      <c r="H67" s="9"/>
+      <c r="I67" s="9" t="s">
         <v>217</v>
       </c>
-      <c r="J67" s="8" t="s">
-        <v>237</v>
-      </c>
-      <c r="K67" s="8"/>
-      <c r="L67" s="9" t="s">
+      <c r="J67" s="9" t="s">
+        <v>237</v>
+      </c>
+      <c r="K67" s="9"/>
+      <c r="L67" s="10" t="s">
         <v>282</v>
       </c>
       <c r="M67" s="5"/>
@@ -5341,31 +5347,31 @@
       <c r="A68" s="5" t="s">
         <v>399</v>
       </c>
-      <c r="B68" s="8" t="s">
+      <c r="B68" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="C68" s="8" t="s">
+      <c r="C68" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="D68" s="8" t="s">
+      <c r="D68" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="E68" s="8" t="s">
+      <c r="E68" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="F68" s="8"/>
-      <c r="G68" s="8" t="s">
+      <c r="F68" s="9"/>
+      <c r="G68" s="9" t="s">
         <v>162</v>
       </c>
-      <c r="H68" s="8"/>
-      <c r="I68" s="8" t="s">
+      <c r="H68" s="9"/>
+      <c r="I68" s="9" t="s">
         <v>218</v>
       </c>
-      <c r="J68" s="8" t="s">
-        <v>237</v>
-      </c>
-      <c r="K68" s="8"/>
-      <c r="L68" s="9" t="s">
+      <c r="J68" s="9" t="s">
+        <v>237</v>
+      </c>
+      <c r="K68" s="9"/>
+      <c r="L68" s="10" t="s">
         <v>282</v>
       </c>
       <c r="M68" s="5"/>
@@ -5386,22 +5392,22 @@
       <c r="B69" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="C69" s="8" t="s">
+      <c r="C69" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="D69" s="8"/>
-      <c r="E69" s="8"/>
-      <c r="F69" s="8"/>
-      <c r="G69" s="8"/>
-      <c r="H69" s="8"/>
-      <c r="I69" s="8"/>
-      <c r="J69" s="8" t="s">
+      <c r="D69" s="9"/>
+      <c r="E69" s="9"/>
+      <c r="F69" s="9"/>
+      <c r="G69" s="9"/>
+      <c r="H69" s="9"/>
+      <c r="I69" s="9"/>
+      <c r="J69" s="9" t="s">
         <v>245</v>
       </c>
-      <c r="K69" s="8" t="s">
+      <c r="K69" s="9" t="s">
         <v>268</v>
       </c>
-      <c r="L69" s="9" t="s">
+      <c r="L69" s="10" t="s">
         <v>282</v>
       </c>
       <c r="M69" s="5"/>
@@ -5419,27 +5425,27 @@
       <c r="A70" s="5" t="s">
         <v>401</v>
       </c>
-      <c r="B70" s="8" t="s">
+      <c r="B70" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="C70" s="8" t="s">
+      <c r="C70" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="D70" s="8" t="s">
+      <c r="D70" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="E70" s="8"/>
-      <c r="F70" s="8" t="s">
+      <c r="E70" s="9"/>
+      <c r="F70" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="G70" s="8"/>
-      <c r="H70" s="8"/>
-      <c r="I70" s="8"/>
-      <c r="J70" s="8" t="s">
+      <c r="G70" s="9"/>
+      <c r="H70" s="9"/>
+      <c r="I70" s="9"/>
+      <c r="J70" s="9" t="s">
         <v>236</v>
       </c>
-      <c r="K70" s="8"/>
-      <c r="L70" s="9" t="s">
+      <c r="K70" s="9"/>
+      <c r="L70" s="10" t="s">
         <v>282</v>
       </c>
       <c r="M70" s="5"/>
@@ -5457,33 +5463,33 @@
       <c r="A71" s="5" t="s">
         <v>402</v>
       </c>
-      <c r="B71" s="8" t="s">
+      <c r="B71" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="C71" s="8" t="s">
+      <c r="C71" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="D71" s="8" t="s">
+      <c r="D71" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="E71" s="8" t="s">
+      <c r="E71" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="F71" s="8" t="s">
+      <c r="F71" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="G71" s="8" t="s">
+      <c r="G71" s="9" t="s">
         <v>137</v>
       </c>
-      <c r="H71" s="8"/>
-      <c r="I71" s="8" t="s">
+      <c r="H71" s="9"/>
+      <c r="I71" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="J71" s="8" t="s">
-        <v>237</v>
-      </c>
-      <c r="K71" s="8"/>
-      <c r="L71" s="9" t="s">
+      <c r="J71" s="9" t="s">
+        <v>237</v>
+      </c>
+      <c r="K71" s="9"/>
+      <c r="L71" s="10" t="s">
         <v>282</v>
       </c>
       <c r="M71" s="5"/>
@@ -5511,25 +5517,25 @@
       <c r="I72" s="5"/>
       <c r="J72" s="5"/>
       <c r="K72" s="5"/>
-      <c r="L72" s="10" t="s">
+      <c r="L72" s="11" t="s">
         <v>283</v>
       </c>
-      <c r="M72" s="11" t="s">
+      <c r="M72" s="12" t="s">
         <v>284</v>
       </c>
-      <c r="N72" s="11" t="s">
+      <c r="N72" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="O72" s="11"/>
-      <c r="P72" s="11"/>
-      <c r="Q72" s="11"/>
-      <c r="R72" s="11"/>
-      <c r="S72" s="11"/>
-      <c r="T72" s="11"/>
-      <c r="U72" s="11" t="s">
+      <c r="O72" s="13"/>
+      <c r="P72" s="13"/>
+      <c r="Q72" s="13"/>
+      <c r="R72" s="13"/>
+      <c r="S72" s="13"/>
+      <c r="T72" s="13"/>
+      <c r="U72" s="13" t="s">
         <v>312</v>
       </c>
-      <c r="V72" s="11" t="s">
+      <c r="V72" s="13" t="s">
         <v>324</v>
       </c>
     </row>
@@ -5547,29 +5553,29 @@
       <c r="I73" s="5"/>
       <c r="J73" s="5"/>
       <c r="K73" s="5"/>
-      <c r="L73" s="10" t="s">
+      <c r="L73" s="11" t="s">
         <v>283</v>
       </c>
-      <c r="M73" s="11" t="s">
+      <c r="M73" s="13" t="s">
         <v>284</v>
       </c>
-      <c r="N73" s="11" t="s">
+      <c r="N73" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="O73" s="11" t="s">
+      <c r="O73" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="P73" s="11"/>
-      <c r="Q73" s="11" t="s">
+      <c r="P73" s="13"/>
+      <c r="Q73" s="13" t="s">
         <v>114</v>
       </c>
-      <c r="R73" s="11"/>
-      <c r="S73" s="11"/>
-      <c r="T73" s="11"/>
-      <c r="U73" s="11" t="s">
+      <c r="R73" s="13"/>
+      <c r="S73" s="13"/>
+      <c r="T73" s="13"/>
+      <c r="U73" s="13" t="s">
         <v>236</v>
       </c>
-      <c r="V73" s="11"/>
+      <c r="V73" s="13"/>
     </row>
     <row r="74" spans="1:22">
       <c r="A74" s="5" t="s">
@@ -5585,35 +5591,35 @@
       <c r="I74" s="5"/>
       <c r="J74" s="5"/>
       <c r="K74" s="5"/>
-      <c r="L74" s="10" t="s">
+      <c r="L74" s="11" t="s">
         <v>283</v>
       </c>
-      <c r="M74" s="11" t="s">
+      <c r="M74" s="13" t="s">
         <v>284</v>
       </c>
-      <c r="N74" s="11" t="s">
+      <c r="N74" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="O74" s="11" t="s">
+      <c r="O74" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="P74" s="11" t="s">
+      <c r="P74" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="Q74" s="11" t="s">
+      <c r="Q74" s="13" t="s">
         <v>114</v>
       </c>
-      <c r="R74" s="11" t="s">
+      <c r="R74" s="13" t="s">
         <v>297</v>
       </c>
-      <c r="S74" s="11"/>
-      <c r="T74" s="11" t="s">
+      <c r="S74" s="13"/>
+      <c r="T74" s="13" t="s">
         <v>304</v>
       </c>
-      <c r="U74" s="11" t="s">
-        <v>237</v>
-      </c>
-      <c r="V74" s="11"/>
+      <c r="U74" s="13" t="s">
+        <v>237</v>
+      </c>
+      <c r="V74" s="13"/>
     </row>
     <row r="75" spans="1:22">
       <c r="A75" s="5" t="s">
@@ -5629,33 +5635,33 @@
       <c r="I75" s="5"/>
       <c r="J75" s="5"/>
       <c r="K75" s="5"/>
-      <c r="L75" s="10" t="s">
+      <c r="L75" s="11" t="s">
         <v>283</v>
       </c>
-      <c r="M75" s="11" t="s">
+      <c r="M75" s="13" t="s">
         <v>284</v>
       </c>
-      <c r="N75" s="11" t="s">
+      <c r="N75" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="O75" s="11" t="s">
+      <c r="O75" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="P75" s="11" t="s">
+      <c r="P75" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="Q75" s="11"/>
-      <c r="R75" s="11" t="s">
+      <c r="Q75" s="13"/>
+      <c r="R75" s="13" t="s">
         <v>298</v>
       </c>
-      <c r="S75" s="11"/>
-      <c r="T75" s="11" t="s">
+      <c r="S75" s="13"/>
+      <c r="T75" s="13" t="s">
         <v>305</v>
       </c>
-      <c r="U75" s="11" t="s">
-        <v>237</v>
-      </c>
-      <c r="V75" s="11"/>
+      <c r="U75" s="13" t="s">
+        <v>237</v>
+      </c>
+      <c r="V75" s="13"/>
     </row>
     <row r="76" spans="1:22">
       <c r="A76" s="5" t="s">
@@ -5671,33 +5677,33 @@
       <c r="I76" s="5"/>
       <c r="J76" s="5"/>
       <c r="K76" s="5"/>
-      <c r="L76" s="10" t="s">
+      <c r="L76" s="11" t="s">
         <v>283</v>
       </c>
-      <c r="M76" s="11" t="s">
+      <c r="M76" s="13" t="s">
         <v>284</v>
       </c>
-      <c r="N76" s="11" t="s">
+      <c r="N76" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="O76" s="11" t="s">
+      <c r="O76" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="P76" s="11" t="s">
+      <c r="P76" s="13" t="s">
         <v>290</v>
       </c>
-      <c r="Q76" s="11" t="s">
+      <c r="Q76" s="13" t="s">
         <v>114</v>
       </c>
-      <c r="R76" s="11"/>
-      <c r="S76" s="11"/>
-      <c r="T76" s="11" t="s">
+      <c r="R76" s="13"/>
+      <c r="S76" s="13"/>
+      <c r="T76" s="13" t="s">
         <v>306</v>
       </c>
-      <c r="U76" s="11" t="s">
+      <c r="U76" s="13" t="s">
         <v>313</v>
       </c>
-      <c r="V76" s="11" t="s">
+      <c r="V76" s="13" t="s">
         <v>325</v>
       </c>
     </row>
@@ -5715,29 +5721,29 @@
       <c r="I77" s="5"/>
       <c r="J77" s="5"/>
       <c r="K77" s="5"/>
-      <c r="L77" s="10" t="s">
+      <c r="L77" s="11" t="s">
         <v>283</v>
       </c>
-      <c r="M77" s="11" t="s">
+      <c r="M77" s="12" t="s">
         <v>285</v>
       </c>
-      <c r="N77" s="11" t="s">
+      <c r="N77" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="O77" s="11" t="s">
+      <c r="O77" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="P77" s="11"/>
-      <c r="Q77" s="11" t="s">
+      <c r="P77" s="13"/>
+      <c r="Q77" s="13" t="s">
         <v>115</v>
       </c>
-      <c r="R77" s="11"/>
-      <c r="S77" s="11"/>
-      <c r="T77" s="11"/>
-      <c r="U77" s="11" t="s">
+      <c r="R77" s="13"/>
+      <c r="S77" s="13"/>
+      <c r="T77" s="13"/>
+      <c r="U77" s="13" t="s">
         <v>236</v>
       </c>
-      <c r="V77" s="11"/>
+      <c r="V77" s="13"/>
     </row>
     <row r="78" spans="1:22">
       <c r="A78" s="5" t="s">
@@ -5753,35 +5759,35 @@
       <c r="I78" s="5"/>
       <c r="J78" s="5"/>
       <c r="K78" s="5"/>
-      <c r="L78" s="10" t="s">
+      <c r="L78" s="11" t="s">
         <v>283</v>
       </c>
-      <c r="M78" s="11" t="s">
+      <c r="M78" s="13" t="s">
         <v>285</v>
       </c>
-      <c r="N78" s="11" t="s">
+      <c r="N78" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="O78" s="11" t="s">
+      <c r="O78" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="P78" s="11" t="s">
+      <c r="P78" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="Q78" s="11" t="s">
+      <c r="Q78" s="13" t="s">
         <v>115</v>
       </c>
-      <c r="R78" s="11" t="s">
+      <c r="R78" s="13" t="s">
         <v>299</v>
       </c>
-      <c r="S78" s="11"/>
-      <c r="T78" s="11" t="s">
+      <c r="S78" s="13"/>
+      <c r="T78" s="13" t="s">
         <v>285</v>
       </c>
-      <c r="U78" s="11" t="s">
-        <v>237</v>
-      </c>
-      <c r="V78" s="11"/>
+      <c r="U78" s="13" t="s">
+        <v>237</v>
+      </c>
+      <c r="V78" s="13"/>
     </row>
     <row r="79" spans="1:22">
       <c r="A79" s="5" t="s">
@@ -5797,33 +5803,33 @@
       <c r="I79" s="5"/>
       <c r="J79" s="5"/>
       <c r="K79" s="5"/>
-      <c r="L79" s="10" t="s">
+      <c r="L79" s="11" t="s">
         <v>283</v>
       </c>
-      <c r="M79" s="11" t="s">
+      <c r="M79" s="13" t="s">
         <v>285</v>
       </c>
-      <c r="N79" s="11" t="s">
+      <c r="N79" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="O79" s="11" t="s">
+      <c r="O79" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="P79" s="11" t="s">
+      <c r="P79" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="Q79" s="11" t="s">
+      <c r="Q79" s="13" t="s">
         <v>115</v>
       </c>
-      <c r="R79" s="11"/>
-      <c r="S79" s="11"/>
-      <c r="T79" s="11" t="s">
+      <c r="R79" s="13"/>
+      <c r="S79" s="13"/>
+      <c r="T79" s="13" t="s">
         <v>194</v>
       </c>
-      <c r="U79" s="11" t="s">
+      <c r="U79" s="13" t="s">
         <v>314</v>
       </c>
-      <c r="V79" s="11" t="s">
+      <c r="V79" s="13" t="s">
         <v>326</v>
       </c>
     </row>
@@ -5841,35 +5847,35 @@
       <c r="I80" s="5"/>
       <c r="J80" s="5"/>
       <c r="K80" s="5"/>
-      <c r="L80" s="10" t="s">
+      <c r="L80" s="11" t="s">
         <v>283</v>
       </c>
-      <c r="M80" s="11" t="s">
+      <c r="M80" s="13" t="s">
         <v>285</v>
       </c>
-      <c r="N80" s="11" t="s">
+      <c r="N80" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="O80" s="11" t="s">
+      <c r="O80" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="P80" s="11" t="s">
+      <c r="P80" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="Q80" s="11" t="s">
+      <c r="Q80" s="13" t="s">
         <v>115</v>
       </c>
-      <c r="R80" s="11" t="s">
+      <c r="R80" s="13" t="s">
         <v>139</v>
       </c>
-      <c r="S80" s="11"/>
-      <c r="T80" s="11" t="s">
+      <c r="S80" s="13"/>
+      <c r="T80" s="13" t="s">
         <v>195</v>
       </c>
-      <c r="U80" s="11" t="s">
-        <v>237</v>
-      </c>
-      <c r="V80" s="11"/>
+      <c r="U80" s="13" t="s">
+        <v>237</v>
+      </c>
+      <c r="V80" s="13"/>
     </row>
     <row r="81" spans="1:22">
       <c r="A81" s="5" t="s">
@@ -5885,29 +5891,29 @@
       <c r="I81" s="5"/>
       <c r="J81" s="5"/>
       <c r="K81" s="5"/>
-      <c r="L81" s="10" t="s">
+      <c r="L81" s="11" t="s">
         <v>283</v>
       </c>
-      <c r="M81" s="11" t="s">
+      <c r="M81" s="12" t="s">
         <v>286</v>
       </c>
-      <c r="N81" s="11" t="s">
+      <c r="N81" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="O81" s="11" t="s">
+      <c r="O81" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="P81" s="11"/>
-      <c r="Q81" s="11" t="s">
+      <c r="P81" s="13"/>
+      <c r="Q81" s="13" t="s">
         <v>116</v>
       </c>
-      <c r="R81" s="11"/>
-      <c r="S81" s="11"/>
-      <c r="T81" s="11"/>
-      <c r="U81" s="11" t="s">
+      <c r="R81" s="13"/>
+      <c r="S81" s="13"/>
+      <c r="T81" s="13"/>
+      <c r="U81" s="13" t="s">
         <v>315</v>
       </c>
-      <c r="V81" s="11" t="s">
+      <c r="V81" s="13" t="s">
         <v>327</v>
       </c>
     </row>
@@ -5925,35 +5931,35 @@
       <c r="I82" s="5"/>
       <c r="J82" s="5"/>
       <c r="K82" s="5"/>
-      <c r="L82" s="10" t="s">
+      <c r="L82" s="11" t="s">
         <v>283</v>
       </c>
-      <c r="M82" s="11" t="s">
+      <c r="M82" s="13" t="s">
         <v>286</v>
       </c>
-      <c r="N82" s="11" t="s">
+      <c r="N82" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="O82" s="11" t="s">
+      <c r="O82" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="P82" s="11" t="s">
+      <c r="P82" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="Q82" s="11" t="s">
+      <c r="Q82" s="13" t="s">
         <v>116</v>
       </c>
-      <c r="R82" s="11" t="s">
+      <c r="R82" s="13" t="s">
         <v>300</v>
       </c>
-      <c r="S82" s="11"/>
-      <c r="T82" s="11" t="s">
+      <c r="S82" s="13"/>
+      <c r="T82" s="13" t="s">
         <v>286</v>
       </c>
-      <c r="U82" s="11" t="s">
-        <v>237</v>
-      </c>
-      <c r="V82" s="11"/>
+      <c r="U82" s="13" t="s">
+        <v>237</v>
+      </c>
+      <c r="V82" s="13"/>
     </row>
     <row r="83" spans="1:22">
       <c r="A83" s="5" t="s">
@@ -5969,33 +5975,33 @@
       <c r="I83" s="5"/>
       <c r="J83" s="5"/>
       <c r="K83" s="5"/>
-      <c r="L83" s="10" t="s">
+      <c r="L83" s="11" t="s">
         <v>283</v>
       </c>
-      <c r="M83" s="11" t="s">
+      <c r="M83" s="13" t="s">
         <v>286</v>
       </c>
-      <c r="N83" s="11" t="s">
+      <c r="N83" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="O83" s="11" t="s">
+      <c r="O83" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="P83" s="11" t="s">
+      <c r="P83" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="Q83" s="11" t="s">
+      <c r="Q83" s="13" t="s">
         <v>116</v>
       </c>
-      <c r="R83" s="11"/>
-      <c r="S83" s="11"/>
-      <c r="T83" s="11" t="s">
+      <c r="R83" s="13"/>
+      <c r="S83" s="13"/>
+      <c r="T83" s="13" t="s">
         <v>194</v>
       </c>
-      <c r="U83" s="11" t="s">
+      <c r="U83" s="13" t="s">
         <v>316</v>
       </c>
-      <c r="V83" s="11"/>
+      <c r="V83" s="13"/>
     </row>
     <row r="84" spans="1:22">
       <c r="A84" s="5" t="s">
@@ -6011,35 +6017,35 @@
       <c r="I84" s="5"/>
       <c r="J84" s="5"/>
       <c r="K84" s="5"/>
-      <c r="L84" s="10" t="s">
+      <c r="L84" s="11" t="s">
         <v>283</v>
       </c>
-      <c r="M84" s="11" t="s">
+      <c r="M84" s="13" t="s">
         <v>286</v>
       </c>
-      <c r="N84" s="11" t="s">
+      <c r="N84" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="O84" s="11" t="s">
+      <c r="O84" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="P84" s="11" t="s">
+      <c r="P84" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="Q84" s="11" t="s">
+      <c r="Q84" s="13" t="s">
         <v>116</v>
       </c>
-      <c r="R84" s="11" t="s">
+      <c r="R84" s="13" t="s">
         <v>139</v>
       </c>
-      <c r="S84" s="11"/>
-      <c r="T84" s="11" t="s">
+      <c r="S84" s="13"/>
+      <c r="T84" s="13" t="s">
         <v>195</v>
       </c>
-      <c r="U84" s="11" t="s">
-        <v>237</v>
-      </c>
-      <c r="V84" s="11"/>
+      <c r="U84" s="13" t="s">
+        <v>237</v>
+      </c>
+      <c r="V84" s="13"/>
     </row>
     <row r="85" spans="1:22">
       <c r="A85" s="5" t="s">
@@ -6055,25 +6061,25 @@
       <c r="I85" s="5"/>
       <c r="J85" s="5"/>
       <c r="K85" s="5"/>
-      <c r="L85" s="10" t="s">
+      <c r="L85" s="11" t="s">
         <v>283</v>
       </c>
-      <c r="M85" s="11" t="s">
+      <c r="M85" s="12" t="s">
         <v>287</v>
       </c>
-      <c r="N85" s="11" t="s">
+      <c r="N85" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="O85" s="11"/>
-      <c r="P85" s="11"/>
-      <c r="Q85" s="11"/>
-      <c r="R85" s="11"/>
-      <c r="S85" s="11"/>
-      <c r="T85" s="11"/>
-      <c r="U85" s="11" t="s">
+      <c r="O85" s="13"/>
+      <c r="P85" s="13"/>
+      <c r="Q85" s="13"/>
+      <c r="R85" s="13"/>
+      <c r="S85" s="13"/>
+      <c r="T85" s="13"/>
+      <c r="U85" s="13" t="s">
         <v>317</v>
       </c>
-      <c r="V85" s="11" t="s">
+      <c r="V85" s="13" t="s">
         <v>328</v>
       </c>
     </row>
@@ -6091,29 +6097,29 @@
       <c r="I86" s="5"/>
       <c r="J86" s="5"/>
       <c r="K86" s="5"/>
-      <c r="L86" s="10" t="s">
+      <c r="L86" s="11" t="s">
         <v>283</v>
       </c>
-      <c r="M86" s="11" t="s">
+      <c r="M86" s="13" t="s">
         <v>287</v>
       </c>
-      <c r="N86" s="11" t="s">
+      <c r="N86" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="O86" s="11" t="s">
+      <c r="O86" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="P86" s="11"/>
-      <c r="Q86" s="11" t="s">
+      <c r="P86" s="13"/>
+      <c r="Q86" s="13" t="s">
         <v>117</v>
       </c>
-      <c r="R86" s="11"/>
-      <c r="S86" s="11"/>
-      <c r="T86" s="11"/>
-      <c r="U86" s="11" t="s">
+      <c r="R86" s="13"/>
+      <c r="S86" s="13"/>
+      <c r="T86" s="13"/>
+      <c r="U86" s="13" t="s">
         <v>236</v>
       </c>
-      <c r="V86" s="11"/>
+      <c r="V86" s="13"/>
     </row>
     <row r="87" spans="1:22">
       <c r="A87" s="5" t="s">
@@ -6129,35 +6135,35 @@
       <c r="I87" s="5"/>
       <c r="J87" s="5"/>
       <c r="K87" s="5"/>
-      <c r="L87" s="10" t="s">
+      <c r="L87" s="11" t="s">
         <v>283</v>
       </c>
-      <c r="M87" s="11" t="s">
+      <c r="M87" s="13" t="s">
         <v>287</v>
       </c>
-      <c r="N87" s="11" t="s">
+      <c r="N87" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="O87" s="11" t="s">
+      <c r="O87" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="P87" s="11" t="s">
+      <c r="P87" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="Q87" s="11" t="s">
+      <c r="Q87" s="13" t="s">
         <v>117</v>
       </c>
-      <c r="R87" s="11" t="s">
+      <c r="R87" s="13" t="s">
         <v>137</v>
       </c>
-      <c r="S87" s="11"/>
-      <c r="T87" s="11" t="s">
+      <c r="S87" s="13"/>
+      <c r="T87" s="13" t="s">
         <v>287</v>
       </c>
-      <c r="U87" s="11" t="s">
-        <v>237</v>
-      </c>
-      <c r="V87" s="11"/>
+      <c r="U87" s="13" t="s">
+        <v>237</v>
+      </c>
+      <c r="V87" s="13"/>
     </row>
     <row r="88" spans="1:22">
       <c r="A88" s="5" t="s">
@@ -6173,29 +6179,29 @@
       <c r="I88" s="5"/>
       <c r="J88" s="5"/>
       <c r="K88" s="5"/>
-      <c r="L88" s="10" t="s">
+      <c r="L88" s="11" t="s">
         <v>283</v>
       </c>
-      <c r="M88" s="11" t="s">
+      <c r="M88" s="12" t="s">
         <v>288</v>
       </c>
-      <c r="N88" s="11" t="s">
+      <c r="N88" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="O88" s="11" t="s">
+      <c r="O88" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="P88" s="11"/>
-      <c r="Q88" s="11" t="s">
+      <c r="P88" s="13"/>
+      <c r="Q88" s="13" t="s">
         <v>118</v>
       </c>
-      <c r="R88" s="11"/>
-      <c r="S88" s="11"/>
-      <c r="T88" s="11"/>
-      <c r="U88" s="11" t="s">
+      <c r="R88" s="13"/>
+      <c r="S88" s="13"/>
+      <c r="T88" s="13"/>
+      <c r="U88" s="13" t="s">
         <v>236</v>
       </c>
-      <c r="V88" s="11"/>
+      <c r="V88" s="13"/>
     </row>
     <row r="89" spans="1:22">
       <c r="A89" s="5" t="s">
@@ -6211,35 +6217,35 @@
       <c r="I89" s="5"/>
       <c r="J89" s="5"/>
       <c r="K89" s="5"/>
-      <c r="L89" s="10" t="s">
+      <c r="L89" s="11" t="s">
         <v>283</v>
       </c>
-      <c r="M89" s="11" t="s">
+      <c r="M89" s="13" t="s">
         <v>288</v>
       </c>
-      <c r="N89" s="11" t="s">
+      <c r="N89" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="O89" s="11" t="s">
+      <c r="O89" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="P89" s="11" t="s">
+      <c r="P89" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="Q89" s="11" t="s">
+      <c r="Q89" s="13" t="s">
         <v>118</v>
       </c>
-      <c r="R89" s="11" t="s">
+      <c r="R89" s="13" t="s">
         <v>301</v>
       </c>
-      <c r="S89" s="11"/>
-      <c r="T89" s="11" t="s">
+      <c r="S89" s="13"/>
+      <c r="T89" s="13" t="s">
         <v>303</v>
       </c>
-      <c r="U89" s="11" t="s">
-        <v>237</v>
-      </c>
-      <c r="V89" s="11"/>
+      <c r="U89" s="13" t="s">
+        <v>237</v>
+      </c>
+      <c r="V89" s="13"/>
     </row>
     <row r="90" spans="1:22">
       <c r="A90" s="5" t="s">
@@ -6255,83 +6261,83 @@
       <c r="I90" s="5"/>
       <c r="J90" s="5"/>
       <c r="K90" s="5"/>
-      <c r="L90" s="10" t="s">
+      <c r="L90" s="11" t="s">
         <v>283</v>
       </c>
-      <c r="M90" s="11" t="s">
+      <c r="M90" s="13" t="s">
         <v>288</v>
       </c>
-      <c r="N90" s="11" t="s">
+      <c r="N90" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="O90" s="11" t="s">
+      <c r="O90" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="P90" s="11" t="s">
+      <c r="P90" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="Q90" s="11" t="s">
+      <c r="Q90" s="13" t="s">
         <v>118</v>
       </c>
-      <c r="R90" s="11"/>
-      <c r="S90" s="11"/>
-      <c r="T90" s="11" t="s">
+      <c r="R90" s="13"/>
+      <c r="S90" s="13"/>
+      <c r="T90" s="13" t="s">
         <v>303</v>
       </c>
-      <c r="U90" s="11" t="s">
+      <c r="U90" s="13" t="s">
         <v>318</v>
       </c>
-      <c r="V90" s="11" t="s">
+      <c r="V90" s="13" t="s">
         <v>329</v>
       </c>
     </row>
     <row r="91" spans="1:22">
-      <c r="A91" s="5" t="s">
+      <c r="A91" s="2" t="s">
         <v>422</v>
       </c>
-      <c r="B91" s="5" t="s">
+      <c r="B91" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C91" s="5" t="s">
+      <c r="C91" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="D91" s="5" t="s">
+      <c r="D91" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="E91" s="5"/>
+      <c r="E91" s="2"/>
       <c r="F91" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="G91" s="5"/>
-      <c r="H91" s="5"/>
-      <c r="I91" s="5"/>
-      <c r="J91" s="5" t="s">
+      <c r="G91" s="2"/>
+      <c r="H91" s="2"/>
+      <c r="I91" s="2"/>
+      <c r="J91" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="K91" s="5"/>
+      <c r="K91" s="2"/>
       <c r="L91" s="7" t="s">
         <v>281</v>
       </c>
-      <c r="M91" s="5" t="s">
+      <c r="M91" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="N91" s="5" t="s">
+      <c r="N91" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="O91" s="5" t="s">
+      <c r="O91" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="P91" s="5"/>
+      <c r="P91" s="2"/>
       <c r="Q91" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="R91" s="5"/>
-      <c r="S91" s="5"/>
-      <c r="T91" s="5"/>
-      <c r="U91" s="5" t="s">
+      <c r="R91" s="2"/>
+      <c r="S91" s="2"/>
+      <c r="T91" s="2"/>
+      <c r="U91" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="V91" s="5"/>
+      <c r="V91" s="2"/>
     </row>
     <row r="92" spans="1:22">
       <c r="A92" s="5" t="s">
@@ -6460,20 +6466,20 @@
       <c r="B94" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="C94" s="8" t="s">
+      <c r="C94" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="D94" s="8"/>
-      <c r="E94" s="8"/>
-      <c r="F94" s="8"/>
-      <c r="G94" s="8"/>
-      <c r="H94" s="8"/>
-      <c r="I94" s="8"/>
-      <c r="J94" s="8" t="s">
+      <c r="D94" s="9"/>
+      <c r="E94" s="9"/>
+      <c r="F94" s="9"/>
+      <c r="G94" s="9"/>
+      <c r="H94" s="9"/>
+      <c r="I94" s="9"/>
+      <c r="J94" s="9" t="s">
         <v>236</v>
       </c>
-      <c r="K94" s="8"/>
-      <c r="L94" s="9" t="s">
+      <c r="K94" s="9"/>
+      <c r="L94" s="10" t="s">
         <v>282</v>
       </c>
       <c r="M94" s="5"/>
@@ -6491,27 +6497,27 @@
       <c r="A95" s="5" t="s">
         <v>426</v>
       </c>
-      <c r="B95" s="8" t="s">
+      <c r="B95" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="C95" s="8" t="s">
+      <c r="C95" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="D95" s="8" t="s">
+      <c r="D95" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="E95" s="8"/>
-      <c r="F95" s="8" t="s">
+      <c r="E95" s="9"/>
+      <c r="F95" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="G95" s="8"/>
-      <c r="H95" s="8"/>
-      <c r="I95" s="8"/>
-      <c r="J95" s="8" t="s">
+      <c r="G95" s="9"/>
+      <c r="H95" s="9"/>
+      <c r="I95" s="9"/>
+      <c r="J95" s="9" t="s">
         <v>236</v>
       </c>
-      <c r="K95" s="8"/>
-      <c r="L95" s="9" t="s">
+      <c r="K95" s="9"/>
+      <c r="L95" s="10" t="s">
         <v>282</v>
       </c>
       <c r="M95" s="5"/>
@@ -6529,33 +6535,33 @@
       <c r="A96" s="5" t="s">
         <v>427</v>
       </c>
-      <c r="B96" s="8" t="s">
+      <c r="B96" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="C96" s="8" t="s">
+      <c r="C96" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="D96" s="8" t="s">
+      <c r="D96" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="E96" s="8" t="s">
+      <c r="E96" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="F96" s="8" t="s">
+      <c r="F96" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="G96" s="8" t="s">
+      <c r="G96" s="9" t="s">
         <v>163</v>
       </c>
-      <c r="H96" s="8"/>
-      <c r="I96" s="8" t="s">
+      <c r="H96" s="9"/>
+      <c r="I96" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="J96" s="8" t="s">
-        <v>237</v>
-      </c>
-      <c r="K96" s="8"/>
-      <c r="L96" s="9" t="s">
+      <c r="J96" s="9" t="s">
+        <v>237</v>
+      </c>
+      <c r="K96" s="9"/>
+      <c r="L96" s="10" t="s">
         <v>282</v>
       </c>
       <c r="M96" s="5"/>
@@ -6573,29 +6579,29 @@
       <c r="A97" s="5" t="s">
         <v>428</v>
       </c>
-      <c r="B97" s="8" t="s">
+      <c r="B97" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="C97" s="8" t="s">
+      <c r="C97" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="D97" s="8" t="s">
+      <c r="D97" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="E97" s="8"/>
-      <c r="F97" s="8" t="s">
+      <c r="E97" s="9"/>
+      <c r="F97" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="G97" s="8"/>
-      <c r="H97" s="8"/>
-      <c r="I97" s="8"/>
-      <c r="J97" s="8" t="s">
+      <c r="G97" s="9"/>
+      <c r="H97" s="9"/>
+      <c r="I97" s="9"/>
+      <c r="J97" s="9" t="s">
         <v>247</v>
       </c>
-      <c r="K97" s="8" t="s">
+      <c r="K97" s="9" t="s">
         <v>270</v>
       </c>
-      <c r="L97" s="9" t="s">
+      <c r="L97" s="10" t="s">
         <v>282</v>
       </c>
       <c r="M97" s="5"/>
@@ -6613,33 +6619,33 @@
       <c r="A98" s="5" t="s">
         <v>429</v>
       </c>
-      <c r="B98" s="8" t="s">
+      <c r="B98" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="C98" s="8" t="s">
+      <c r="C98" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="D98" s="8" t="s">
+      <c r="D98" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="E98" s="8" t="s">
+      <c r="E98" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="F98" s="8" t="s">
+      <c r="F98" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="G98" s="8" t="s">
+      <c r="G98" s="9" t="s">
         <v>164</v>
       </c>
-      <c r="H98" s="8"/>
-      <c r="I98" s="8" t="s">
+      <c r="H98" s="9"/>
+      <c r="I98" s="9" t="s">
         <v>221</v>
       </c>
-      <c r="J98" s="8" t="s">
+      <c r="J98" s="9" t="s">
         <v>241</v>
       </c>
-      <c r="K98" s="8"/>
-      <c r="L98" s="9" t="s">
+      <c r="K98" s="9"/>
+      <c r="L98" s="10" t="s">
         <v>282</v>
       </c>
       <c r="M98" s="5"/>
@@ -6657,31 +6663,31 @@
       <c r="A99" s="5" t="s">
         <v>430</v>
       </c>
-      <c r="B99" s="8" t="s">
+      <c r="B99" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="C99" s="8" t="s">
+      <c r="C99" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="D99" s="8" t="s">
+      <c r="D99" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="E99" s="8" t="s">
+      <c r="E99" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="F99" s="8"/>
-      <c r="G99" s="8" t="s">
+      <c r="F99" s="9"/>
+      <c r="G99" s="9" t="s">
         <v>165</v>
       </c>
-      <c r="H99" s="8"/>
-      <c r="I99" s="8" t="s">
+      <c r="H99" s="9"/>
+      <c r="I99" s="9" t="s">
         <v>222</v>
       </c>
-      <c r="J99" s="8" t="s">
+      <c r="J99" s="9" t="s">
         <v>241</v>
       </c>
-      <c r="K99" s="8"/>
-      <c r="L99" s="9" t="s">
+      <c r="K99" s="9"/>
+      <c r="L99" s="10" t="s">
         <v>282</v>
       </c>
       <c r="M99" s="5"/>
@@ -6699,31 +6705,31 @@
       <c r="A100" s="5" t="s">
         <v>431</v>
       </c>
-      <c r="B100" s="8" t="s">
+      <c r="B100" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="C100" s="8" t="s">
+      <c r="C100" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="D100" s="8" t="s">
+      <c r="D100" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="E100" s="8" t="s">
+      <c r="E100" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="F100" s="8"/>
-      <c r="G100" s="8" t="s">
+      <c r="F100" s="9"/>
+      <c r="G100" s="9" t="s">
         <v>166</v>
       </c>
-      <c r="H100" s="8"/>
-      <c r="I100" s="8" t="s">
+      <c r="H100" s="9"/>
+      <c r="I100" s="9" t="s">
         <v>223</v>
       </c>
-      <c r="J100" s="8" t="s">
+      <c r="J100" s="9" t="s">
         <v>241</v>
       </c>
-      <c r="K100" s="8"/>
-      <c r="L100" s="9" t="s">
+      <c r="K100" s="9"/>
+      <c r="L100" s="10" t="s">
         <v>282</v>
       </c>
       <c r="M100" s="5"/>
@@ -6741,31 +6747,31 @@
       <c r="A101" s="5" t="s">
         <v>432</v>
       </c>
-      <c r="B101" s="8" t="s">
+      <c r="B101" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="C101" s="8" t="s">
+      <c r="C101" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="D101" s="8" t="s">
+      <c r="D101" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="E101" s="8" t="s">
+      <c r="E101" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="F101" s="8"/>
-      <c r="G101" s="8" t="s">
+      <c r="F101" s="9"/>
+      <c r="G101" s="9" t="s">
         <v>167</v>
       </c>
-      <c r="H101" s="8"/>
-      <c r="I101" s="8" t="s">
+      <c r="H101" s="9"/>
+      <c r="I101" s="9" t="s">
         <v>224</v>
       </c>
-      <c r="J101" s="8" t="s">
+      <c r="J101" s="9" t="s">
         <v>241</v>
       </c>
-      <c r="K101" s="8"/>
-      <c r="L101" s="9" t="s">
+      <c r="K101" s="9"/>
+      <c r="L101" s="10" t="s">
         <v>282</v>
       </c>
       <c r="M101" s="5"/>
@@ -6783,31 +6789,31 @@
       <c r="A102" s="5" t="s">
         <v>433</v>
       </c>
-      <c r="B102" s="8" t="s">
+      <c r="B102" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="C102" s="8" t="s">
+      <c r="C102" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="D102" s="8" t="s">
+      <c r="D102" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="E102" s="8" t="s">
+      <c r="E102" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="F102" s="8"/>
-      <c r="G102" s="8" t="s">
+      <c r="F102" s="9"/>
+      <c r="G102" s="9" t="s">
         <v>168</v>
       </c>
-      <c r="H102" s="8"/>
-      <c r="I102" s="8" t="s">
+      <c r="H102" s="9"/>
+      <c r="I102" s="9" t="s">
         <v>225</v>
       </c>
-      <c r="J102" s="8" t="s">
+      <c r="J102" s="9" t="s">
         <v>241</v>
       </c>
-      <c r="K102" s="8"/>
-      <c r="L102" s="9" t="s">
+      <c r="K102" s="9"/>
+      <c r="L102" s="10" t="s">
         <v>282</v>
       </c>
       <c r="M102" s="5"/>
@@ -6822,21 +6828,21 @@
       <c r="V102" s="5"/>
     </row>
     <row r="103" spans="1:22">
-      <c r="A103" s="5" t="s">
+      <c r="A103" s="2" t="s">
         <v>434</v>
       </c>
-      <c r="B103" s="5" t="s">
+      <c r="B103" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C103" s="5" t="s">
+      <c r="C103" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="D103" s="5"/>
-      <c r="E103" s="5"/>
-      <c r="F103" s="5"/>
-      <c r="G103" s="5"/>
-      <c r="H103" s="5"/>
-      <c r="I103" s="5"/>
+      <c r="D103" s="2"/>
+      <c r="E103" s="2"/>
+      <c r="F103" s="2"/>
+      <c r="G103" s="2"/>
+      <c r="H103" s="2"/>
+      <c r="I103" s="2"/>
       <c r="J103" s="6" t="s">
         <v>245</v>
       </c>
@@ -6846,18 +6852,18 @@
       <c r="L103" s="7" t="s">
         <v>281</v>
       </c>
-      <c r="M103" s="5" t="s">
+      <c r="M103" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="N103" s="5" t="s">
+      <c r="N103" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="O103" s="5"/>
-      <c r="P103" s="5"/>
-      <c r="Q103" s="5"/>
-      <c r="R103" s="5"/>
-      <c r="S103" s="5"/>
-      <c r="T103" s="5"/>
+      <c r="O103" s="2"/>
+      <c r="P103" s="2"/>
+      <c r="Q103" s="2"/>
+      <c r="R103" s="2"/>
+      <c r="S103" s="2"/>
+      <c r="T103" s="2"/>
       <c r="U103" s="6" t="s">
         <v>319</v>
       </c>
@@ -7047,29 +7053,29 @@
       <c r="I107" s="5"/>
       <c r="J107" s="5"/>
       <c r="K107" s="5"/>
-      <c r="L107" s="10" t="s">
+      <c r="L107" s="11" t="s">
         <v>283</v>
       </c>
-      <c r="M107" s="11" t="s">
+      <c r="M107" s="12" t="s">
         <v>288</v>
       </c>
-      <c r="N107" s="11" t="s">
+      <c r="N107" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="O107" s="11" t="s">
+      <c r="O107" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="P107" s="11"/>
-      <c r="Q107" s="11" t="s">
+      <c r="P107" s="13"/>
+      <c r="Q107" s="13" t="s">
         <v>121</v>
       </c>
-      <c r="R107" s="11"/>
-      <c r="S107" s="11"/>
-      <c r="T107" s="11"/>
-      <c r="U107" s="11" t="s">
+      <c r="R107" s="13"/>
+      <c r="S107" s="13"/>
+      <c r="T107" s="13"/>
+      <c r="U107" s="13" t="s">
         <v>236</v>
       </c>
-      <c r="V107" s="11"/>
+      <c r="V107" s="13"/>
     </row>
     <row r="108" spans="1:22">
       <c r="A108" s="5" t="s">
@@ -7085,35 +7091,35 @@
       <c r="I108" s="5"/>
       <c r="J108" s="5"/>
       <c r="K108" s="5"/>
-      <c r="L108" s="10" t="s">
+      <c r="L108" s="11" t="s">
         <v>283</v>
       </c>
-      <c r="M108" s="11" t="s">
+      <c r="M108" s="13" t="s">
         <v>288</v>
       </c>
-      <c r="N108" s="11" t="s">
+      <c r="N108" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="O108" s="11" t="s">
+      <c r="O108" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="P108" s="11" t="s">
+      <c r="P108" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="Q108" s="11" t="s">
+      <c r="Q108" s="13" t="s">
         <v>121</v>
       </c>
-      <c r="R108" s="11" t="s">
+      <c r="R108" s="13" t="s">
         <v>301</v>
       </c>
-      <c r="S108" s="11"/>
-      <c r="T108" s="11" t="s">
+      <c r="S108" s="13"/>
+      <c r="T108" s="13" t="s">
         <v>303</v>
       </c>
-      <c r="U108" s="11" t="s">
-        <v>237</v>
-      </c>
-      <c r="V108" s="11"/>
+      <c r="U108" s="13" t="s">
+        <v>237</v>
+      </c>
+      <c r="V108" s="13"/>
     </row>
     <row r="109" spans="1:22">
       <c r="A109" s="5" t="s">
@@ -7129,57 +7135,57 @@
       <c r="I109" s="5"/>
       <c r="J109" s="5"/>
       <c r="K109" s="5"/>
-      <c r="L109" s="10" t="s">
+      <c r="L109" s="11" t="s">
         <v>283</v>
       </c>
-      <c r="M109" s="11" t="s">
+      <c r="M109" s="13" t="s">
         <v>288</v>
       </c>
-      <c r="N109" s="11" t="s">
+      <c r="N109" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="O109" s="11" t="s">
+      <c r="O109" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="P109" s="11" t="s">
+      <c r="P109" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="Q109" s="11" t="s">
+      <c r="Q109" s="13" t="s">
         <v>121</v>
       </c>
-      <c r="R109" s="11"/>
-      <c r="S109" s="11"/>
-      <c r="T109" s="11" t="s">
+      <c r="R109" s="13"/>
+      <c r="S109" s="13"/>
+      <c r="T109" s="13" t="s">
         <v>303</v>
       </c>
-      <c r="U109" s="11" t="s">
+      <c r="U109" s="13" t="s">
         <v>318</v>
       </c>
-      <c r="V109" s="11" t="s">
+      <c r="V109" s="13" t="s">
         <v>329</v>
       </c>
     </row>
     <row r="110" spans="1:22">
-      <c r="A110" s="5" t="s">
+      <c r="A110" s="2" t="s">
         <v>441</v>
       </c>
-      <c r="B110" s="5" t="s">
+      <c r="B110" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C110" s="5" t="s">
+      <c r="C110" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="D110" s="5" t="s">
+      <c r="D110" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="E110" s="5"/>
+      <c r="E110" s="2"/>
       <c r="F110" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="G110" s="5"/>
-      <c r="H110" s="5"/>
-      <c r="I110" s="5"/>
-      <c r="J110" s="5" t="s">
+      <c r="G110" s="2"/>
+      <c r="H110" s="2"/>
+      <c r="I110" s="2"/>
+      <c r="J110" s="2" t="s">
         <v>249</v>
       </c>
       <c r="K110" s="6" t="s">
@@ -7188,23 +7194,23 @@
       <c r="L110" s="7" t="s">
         <v>281</v>
       </c>
-      <c r="M110" s="5" t="s">
+      <c r="M110" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="N110" s="5" t="s">
+      <c r="N110" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="O110" s="5" t="s">
+      <c r="O110" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="P110" s="5"/>
+      <c r="P110" s="2"/>
       <c r="Q110" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="R110" s="5"/>
-      <c r="S110" s="5"/>
-      <c r="T110" s="5"/>
-      <c r="U110" s="5" t="s">
+      <c r="R110" s="2"/>
+      <c r="S110" s="2"/>
+      <c r="T110" s="2"/>
+      <c r="U110" s="2" t="s">
         <v>249</v>
       </c>
       <c r="V110" s="6" t="s">
@@ -7332,54 +7338,54 @@
       </c>
     </row>
     <row r="113" spans="1:22">
-      <c r="A113" s="5" t="s">
+      <c r="A113" s="2" t="s">
         <v>444</v>
       </c>
-      <c r="B113" s="5" t="s">
+      <c r="B113" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C113" s="5" t="s">
+      <c r="C113" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="D113" s="5" t="s">
+      <c r="D113" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="E113" s="5"/>
+      <c r="E113" s="2"/>
       <c r="F113" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="G113" s="5"/>
-      <c r="H113" s="5"/>
-      <c r="I113" s="5"/>
-      <c r="J113" s="5" t="s">
+      <c r="G113" s="2"/>
+      <c r="H113" s="2"/>
+      <c r="I113" s="2"/>
+      <c r="J113" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="K113" s="5" t="s">
+      <c r="K113" s="2" t="s">
         <v>274</v>
       </c>
       <c r="L113" s="7" t="s">
         <v>281</v>
       </c>
-      <c r="M113" s="5" t="s">
+      <c r="M113" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="N113" s="5" t="s">
+      <c r="N113" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="O113" s="5" t="s">
+      <c r="O113" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="P113" s="5"/>
+      <c r="P113" s="2"/>
       <c r="Q113" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="R113" s="5"/>
-      <c r="S113" s="5"/>
-      <c r="T113" s="5"/>
-      <c r="U113" s="5" t="s">
+      <c r="R113" s="2"/>
+      <c r="S113" s="2"/>
+      <c r="T113" s="2"/>
+      <c r="U113" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="V113" s="5" t="s">
+      <c r="V113" s="2" t="s">
         <v>274</v>
       </c>
     </row>
@@ -7524,7 +7530,7 @@
       </c>
       <c r="K116" s="2"/>
       <c r="L116" s="4"/>
-      <c r="M116" s="2" t="s">
+      <c r="M116" s="3" t="s">
         <v>40</v>
       </c>
       <c r="N116" s="2" t="s">
@@ -7650,52 +7656,52 @@
       <c r="V118" s="5"/>
     </row>
     <row r="119" spans="1:22">
-      <c r="A119" s="5" t="s">
+      <c r="A119" s="2" t="s">
         <v>450</v>
       </c>
-      <c r="B119" s="5" t="s">
+      <c r="B119" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C119" s="5" t="s">
+      <c r="C119" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="D119" s="5" t="s">
+      <c r="D119" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="E119" s="5"/>
+      <c r="E119" s="2"/>
       <c r="F119" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="G119" s="5"/>
-      <c r="H119" s="5"/>
-      <c r="I119" s="5"/>
-      <c r="J119" s="5" t="s">
+      <c r="G119" s="2"/>
+      <c r="H119" s="2"/>
+      <c r="I119" s="2"/>
+      <c r="J119" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="K119" s="5"/>
+      <c r="K119" s="2"/>
       <c r="L119" s="7" t="s">
         <v>281</v>
       </c>
-      <c r="M119" s="5" t="s">
+      <c r="M119" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="N119" s="5" t="s">
+      <c r="N119" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="O119" s="5" t="s">
+      <c r="O119" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="P119" s="5"/>
+      <c r="P119" s="2"/>
       <c r="Q119" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="R119" s="5"/>
-      <c r="S119" s="5"/>
-      <c r="T119" s="5"/>
-      <c r="U119" s="5" t="s">
+      <c r="R119" s="2"/>
+      <c r="S119" s="2"/>
+      <c r="T119" s="2"/>
+      <c r="U119" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="V119" s="5"/>
+      <c r="V119" s="2"/>
     </row>
     <row r="120" spans="1:22">
       <c r="A120" s="5" t="s">
@@ -8056,7 +8062,7 @@
         <v>277</v>
       </c>
       <c r="L126" s="4"/>
-      <c r="M126" s="2" t="s">
+      <c r="M126" s="3" t="s">
         <v>42</v>
       </c>
       <c r="N126" s="2" t="s">
@@ -8368,7 +8374,7 @@
         <v>278</v>
       </c>
       <c r="L132" s="4"/>
-      <c r="M132" s="2" t="s">
+      <c r="M132" s="3" t="s">
         <v>43</v>
       </c>
       <c r="N132" s="2" t="s">
@@ -8686,7 +8692,7 @@
         <v>278</v>
       </c>
       <c r="L138" s="4"/>
-      <c r="M138" s="2" t="s">
+      <c r="M138" s="3" t="s">
         <v>44</v>
       </c>
       <c r="N138" s="2" t="s">
@@ -9004,7 +9010,7 @@
         <v>278</v>
       </c>
       <c r="L144" s="4"/>
-      <c r="M144" s="2" t="s">
+      <c r="M144" s="3" t="s">
         <v>45</v>
       </c>
       <c r="N144" s="2" t="s">
@@ -9300,48 +9306,48 @@
       </c>
     </row>
     <row r="150" spans="1:22">
-      <c r="A150" s="5" t="s">
+      <c r="A150" s="2" t="s">
         <v>480</v>
       </c>
-      <c r="B150" s="5" t="s">
+      <c r="B150" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C150" s="5"/>
-      <c r="D150" s="5" t="s">
+      <c r="C150" s="2"/>
+      <c r="D150" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="E150" s="5"/>
+      <c r="E150" s="2"/>
       <c r="F150" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="G150" s="5"/>
-      <c r="H150" s="5"/>
-      <c r="I150" s="5"/>
-      <c r="J150" s="5" t="s">
+      <c r="G150" s="2"/>
+      <c r="H150" s="2"/>
+      <c r="I150" s="2"/>
+      <c r="J150" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="K150" s="5"/>
+      <c r="K150" s="2"/>
       <c r="L150" s="7" t="s">
         <v>281</v>
       </c>
-      <c r="M150" s="5" t="s">
+      <c r="M150" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="N150" s="5"/>
-      <c r="O150" s="5" t="s">
+      <c r="N150" s="2"/>
+      <c r="O150" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="P150" s="5"/>
+      <c r="P150" s="2"/>
       <c r="Q150" s="6" t="s">
         <v>295</v>
       </c>
-      <c r="R150" s="5"/>
-      <c r="S150" s="5"/>
-      <c r="T150" s="5"/>
-      <c r="U150" s="5" t="s">
+      <c r="R150" s="2"/>
+      <c r="S150" s="2"/>
+      <c r="T150" s="2"/>
+      <c r="U150" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="V150" s="5"/>
+      <c r="V150" s="2"/>
     </row>
     <row r="151" spans="1:22">
       <c r="A151" s="5" t="s">
